--- a/data/VentasVuelos.xlsx
+++ b/data/VentasVuelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Desktop\R\course-r-research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814E25DE-B17B-44DB-B2EE-C7144FAD1A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0003283-F774-48E2-9BD0-8C6179F57440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0C1AF46-0FB4-4E86-A387-53DF55DB3505}"/>
   </bookViews>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:S824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
